--- a/Code/Results/Cases/Case_0_247/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_247/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9739339180554054</v>
+        <v>1.020349605984689</v>
       </c>
       <c r="D2">
-        <v>0.9838464233272357</v>
+        <v>1.022174629359064</v>
       </c>
       <c r="E2">
-        <v>0.9894204082009772</v>
+        <v>1.029836972115252</v>
       </c>
       <c r="F2">
-        <v>0.9906743464357204</v>
+        <v>1.037336229550243</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.023594999628091</v>
       </c>
       <c r="J2">
-        <v>0.9969232293530602</v>
+        <v>1.02554721649973</v>
       </c>
       <c r="K2">
-        <v>0.99553548679396</v>
+        <v>1.025009786906153</v>
       </c>
       <c r="L2">
-        <v>1.001029128147641</v>
+        <v>1.032649726007894</v>
       </c>
       <c r="M2">
-        <v>1.002265149733667</v>
+        <v>1.040127404791578</v>
       </c>
       <c r="N2">
-        <v>1.002506338836173</v>
+        <v>1.012499121358909</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9791785626659314</v>
+        <v>1.021463424500027</v>
       </c>
       <c r="D3">
-        <v>0.9881670962117091</v>
+        <v>1.023144942643183</v>
       </c>
       <c r="E3">
-        <v>0.9939815175982832</v>
+        <v>1.030864681332056</v>
       </c>
       <c r="F3">
-        <v>0.9959450139106529</v>
+        <v>1.038536172828092</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208683</v>
       </c>
       <c r="J3">
-        <v>1.00025339627942</v>
+        <v>1.026297326841434</v>
       </c>
       <c r="K3">
-        <v>0.9989536541660716</v>
+        <v>1.025786262692901</v>
       </c>
       <c r="L3">
-        <v>1.004691989681976</v>
+        <v>1.03348507388885</v>
       </c>
       <c r="M3">
-        <v>1.006630043327909</v>
+        <v>1.041136101883477</v>
       </c>
       <c r="N3">
-        <v>1.003681905316705</v>
+        <v>1.012756310177493</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9824984031185816</v>
+        <v>1.022184695731987</v>
       </c>
       <c r="D4">
-        <v>0.9909084629276322</v>
+        <v>1.023773588947807</v>
       </c>
       <c r="E4">
-        <v>0.9968752724198117</v>
+        <v>1.031530533551314</v>
       </c>
       <c r="F4">
-        <v>0.999289279305226</v>
+        <v>1.039313808765389</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>1.00236065009378</v>
+        <v>1.026782745325733</v>
       </c>
       <c r="K4">
-        <v>1.001117867582827</v>
+        <v>1.026288871349019</v>
       </c>
       <c r="L4">
-        <v>1.007011557026558</v>
+        <v>1.034025853867295</v>
       </c>
       <c r="M4">
-        <v>1.009396289674873</v>
+        <v>1.04178942196542</v>
       </c>
       <c r="N4">
-        <v>1.004424625327858</v>
+        <v>1.012922514777585</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9838771510913588</v>
+        <v>1.022488051932126</v>
       </c>
       <c r="D5">
-        <v>0.9920484411420195</v>
+        <v>1.024038060559989</v>
       </c>
       <c r="E5">
-        <v>0.9980785898028924</v>
+        <v>1.031810662680135</v>
       </c>
       <c r="F5">
-        <v>1.00068004122112</v>
+        <v>1.03964101271398</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628374</v>
       </c>
       <c r="J5">
-        <v>1.003235586170117</v>
+        <v>1.026986826549575</v>
       </c>
       <c r="K5">
-        <v>1.002016755206787</v>
+        <v>1.026500210362561</v>
       </c>
       <c r="L5">
-        <v>1.007975076079335</v>
+        <v>1.034253258650684</v>
       </c>
       <c r="M5">
-        <v>1.010545871323207</v>
+        <v>1.042064227717361</v>
       </c>
       <c r="N5">
-        <v>1.004732714373155</v>
+        <v>1.012992335863613</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9841076782633266</v>
+        <v>1.022538994635924</v>
       </c>
       <c r="D6">
-        <v>0.9922391308202969</v>
+        <v>1.024082477569908</v>
       </c>
       <c r="E6">
-        <v>0.998279872996308</v>
+        <v>1.031857709606911</v>
       </c>
       <c r="F6">
-        <v>1.000912686003805</v>
+        <v>1.039695968466207</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>1.003381861773516</v>
+        <v>1.02702109334905</v>
       </c>
       <c r="K6">
-        <v>1.002167052762828</v>
+        <v>1.026535697595033</v>
       </c>
       <c r="L6">
-        <v>1.00813618665068</v>
+        <v>1.034291444486443</v>
       </c>
       <c r="M6">
-        <v>1.010738124324083</v>
+        <v>1.042110377614219</v>
       </c>
       <c r="N6">
-        <v>1.004784204609149</v>
+        <v>1.013004056116885</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9825168915073225</v>
+        <v>1.022188748665937</v>
       </c>
       <c r="D7">
-        <v>0.990923743777904</v>
+        <v>1.023777122089087</v>
       </c>
       <c r="E7">
-        <v>0.9968914024091706</v>
+        <v>1.031534275845471</v>
       </c>
       <c r="F7">
-        <v>0.9993079214547377</v>
+        <v>1.039318179757125</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.023442985510381</v>
       </c>
       <c r="J7">
-        <v>1.002372383508944</v>
+        <v>1.026785472224582</v>
       </c>
       <c r="K7">
-        <v>1.001129921015101</v>
+        <v>1.02629169510493</v>
       </c>
       <c r="L7">
-        <v>1.007024476693042</v>
+        <v>1.034028892221836</v>
       </c>
       <c r="M7">
-        <v>1.009411702161699</v>
+        <v>1.041793093343689</v>
       </c>
       <c r="N7">
-        <v>1.004428758148761</v>
+        <v>1.012923447932227</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9757221181328658</v>
+        <v>1.020725911381005</v>
       </c>
       <c r="D8">
-        <v>0.9853182073468668</v>
+        <v>1.022502387893734</v>
       </c>
       <c r="E8">
-        <v>0.990974133667967</v>
+        <v>1.030184114099452</v>
       </c>
       <c r="F8">
-        <v>0.9924697260794497</v>
+        <v>1.037741509306102</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.9980588004228639</v>
+        <v>1.025800710116416</v>
       </c>
       <c r="K8">
-        <v>0.9967007953376509</v>
+        <v>1.025272163894561</v>
       </c>
       <c r="L8">
-        <v>1.002277770218401</v>
+        <v>1.032931983170499</v>
       </c>
       <c r="M8">
-        <v>1.003752675219149</v>
+        <v>1.040468169287145</v>
       </c>
       <c r="N8">
-        <v>1.002907434859357</v>
+        <v>1.012586083693492</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9631473904311235</v>
+        <v>1.018152436874261</v>
       </c>
       <c r="D9">
-        <v>0.9749984595694849</v>
+        <v>1.020262189021228</v>
       </c>
       <c r="E9">
-        <v>0.9800787628810552</v>
+        <v>1.02781150883515</v>
       </c>
       <c r="F9">
-        <v>0.9798800547816758</v>
+        <v>1.034972331664743</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9900721644084377</v>
+        <v>1.024065790219161</v>
       </c>
       <c r="K9">
-        <v>0.9885106261303578</v>
+        <v>1.02347697498826</v>
       </c>
       <c r="L9">
-        <v>0.9935035345394324</v>
+        <v>1.031001031962369</v>
       </c>
       <c r="M9">
-        <v>0.9933082227531242</v>
+        <v>1.038138265477068</v>
       </c>
       <c r="N9">
-        <v>1.000082133369635</v>
+        <v>1.011989974284119</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9543050242191857</v>
+        <v>1.016439591257137</v>
       </c>
       <c r="D10">
-        <v>0.9677830845505776</v>
+        <v>1.018772792231163</v>
       </c>
       <c r="E10">
-        <v>0.9724591158635084</v>
+        <v>1.026234173601192</v>
       </c>
       <c r="F10">
-        <v>0.9710744935318583</v>
+        <v>1.033132319420464</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.9844567181791075</v>
+        <v>1.022909411080321</v>
       </c>
       <c r="K10">
-        <v>0.982759452658589</v>
+        <v>1.022281092265943</v>
       </c>
       <c r="L10">
-        <v>0.9873440943613375</v>
+        <v>1.029715031074178</v>
       </c>
       <c r="M10">
-        <v>0.9859864131628149</v>
+        <v>1.036588195265999</v>
       </c>
       <c r="N10">
-        <v>0.9980907755360844</v>
+        <v>1.011591480050356</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9503536947344583</v>
+        <v>1.015698565473323</v>
       </c>
       <c r="D11">
-        <v>0.9645697266795772</v>
+        <v>1.018128832288674</v>
       </c>
       <c r="E11">
-        <v>0.9690651349542428</v>
+        <v>1.025552212411625</v>
       </c>
       <c r="F11">
-        <v>0.9671515655035885</v>
+        <v>1.032337016077355</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.9819482954774916</v>
+        <v>1.022408739773228</v>
       </c>
       <c r="K11">
-        <v>0.9801922337873686</v>
+        <v>1.021763476684015</v>
       </c>
       <c r="L11">
-        <v>0.9845950076463934</v>
+        <v>1.029158484755441</v>
       </c>
       <c r="M11">
-        <v>0.9827207311547301</v>
+        <v>1.035917752253726</v>
       </c>
       <c r="N11">
-        <v>0.99720029381874</v>
+        <v>1.011418671126737</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9488663138146325</v>
+        <v>1.015423411878731</v>
       </c>
       <c r="D12">
-        <v>0.9633618818567079</v>
+        <v>1.017889780852791</v>
       </c>
       <c r="E12">
-        <v>0.9677892960362591</v>
+        <v>1.025299056986841</v>
       </c>
       <c r="F12">
-        <v>0.965676738836131</v>
+        <v>1.032041819855414</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.9810042683848799</v>
+        <v>1.022222775200687</v>
       </c>
       <c r="K12">
-        <v>0.9792263622862233</v>
+        <v>1.021571242525713</v>
       </c>
       <c r="L12">
-        <v>0.9835607618678945</v>
+        <v>1.028951803568309</v>
       </c>
       <c r="M12">
-        <v>0.9814924462070701</v>
+        <v>1.035668831736869</v>
       </c>
       <c r="N12">
-        <v>0.9968650449899178</v>
+        <v>1.0113544434857</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9491862743497473</v>
+        <v>1.015482428912444</v>
       </c>
       <c r="D13">
-        <v>0.9636216289596016</v>
+        <v>1.017941051683968</v>
       </c>
       <c r="E13">
-        <v>0.9680636700690859</v>
+        <v>1.025353352659628</v>
       </c>
       <c r="F13">
-        <v>0.9659939134488748</v>
+        <v>1.03210513073432</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9812073338987051</v>
+        <v>1.022262664917883</v>
       </c>
       <c r="K13">
-        <v>0.9794341137361681</v>
+        <v>1.02161247599071</v>
       </c>
       <c r="L13">
-        <v>0.983783217917812</v>
+        <v>1.028996135357016</v>
       </c>
       <c r="M13">
-        <v>0.9817566244037274</v>
+        <v>1.035722220977581</v>
       </c>
       <c r="N13">
-        <v>0.9969371641028596</v>
+        <v>1.011368222283054</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9502311566100228</v>
+        <v>1.015675819230671</v>
       </c>
       <c r="D14">
-        <v>0.9644701821208441</v>
+        <v>1.018109069286104</v>
       </c>
       <c r="E14">
-        <v>0.9689599887968082</v>
+        <v>1.02553128333795</v>
       </c>
       <c r="F14">
-        <v>0.9670300234083744</v>
+        <v>1.032312610686158</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.9818705170259434</v>
+        <v>1.022393367741351</v>
       </c>
       <c r="K14">
-        <v>0.9801126497754442</v>
+        <v>1.021747585910623</v>
       </c>
       <c r="L14">
-        <v>0.9845097888754993</v>
+        <v>1.029141399509654</v>
       </c>
       <c r="M14">
-        <v>0.9826195179166455</v>
+        <v>1.035897174126639</v>
       </c>
       <c r="N14">
-        <v>0.9971726750198461</v>
+        <v>1.011413362839077</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.950872295146866</v>
+        <v>1.015794986131469</v>
       </c>
       <c r="D15">
-        <v>0.9649910864446121</v>
+        <v>1.018212609549888</v>
       </c>
       <c r="E15">
-        <v>0.9695102013884477</v>
+        <v>1.025640932876699</v>
       </c>
       <c r="F15">
-        <v>0.9676660268722852</v>
+        <v>1.032440474383947</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833787</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.9822774748465313</v>
+        <v>1.022473898990777</v>
       </c>
       <c r="K15">
-        <v>0.9805290663550019</v>
+        <v>1.02183083573628</v>
       </c>
       <c r="L15">
-        <v>0.9849556908672812</v>
+        <v>1.029230907489905</v>
       </c>
       <c r="M15">
-        <v>0.9831491225519243</v>
+        <v>1.036004983346332</v>
       </c>
       <c r="N15">
-        <v>0.9973171791502105</v>
+        <v>1.011441170298477</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9545645732834617</v>
+        <v>1.016488784264058</v>
       </c>
       <c r="D16">
-        <v>0.9679943947040148</v>
+        <v>1.01881554992392</v>
       </c>
       <c r="E16">
-        <v>0.9726822905245585</v>
+        <v>1.026279454913947</v>
       </c>
       <c r="F16">
-        <v>0.9713324312498528</v>
+        <v>1.033185131246975</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.984621512517739</v>
+        <v>1.022942639986949</v>
       </c>
       <c r="K16">
-        <v>0.9829281484734337</v>
+        <v>1.022315449107855</v>
       </c>
       <c r="L16">
-        <v>0.9875247482891396</v>
+        <v>1.029751973530507</v>
       </c>
       <c r="M16">
-        <v>0.9862010588685197</v>
+        <v>1.036632706073421</v>
       </c>
       <c r="N16">
-        <v>0.9981492589842387</v>
+        <v>1.011602943375499</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9568469732641739</v>
+        <v>1.016924158244312</v>
       </c>
       <c r="D17">
-        <v>0.9698538489346445</v>
+        <v>1.019194015107871</v>
       </c>
       <c r="E17">
-        <v>0.9746460804790867</v>
+        <v>1.026680259955463</v>
       </c>
       <c r="F17">
-        <v>0.9736020272964483</v>
+        <v>1.033652618342809</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862435</v>
       </c>
       <c r="J17">
-        <v>0.9860707785197992</v>
+        <v>1.023236681640314</v>
       </c>
       <c r="K17">
-        <v>0.984411934778131</v>
+        <v>1.022619490252654</v>
       </c>
       <c r="L17">
-        <v>0.9891137556682017</v>
+        <v>1.030078904773804</v>
       </c>
       <c r="M17">
-        <v>0.9880893006425416</v>
+        <v>1.037026659793874</v>
       </c>
       <c r="N17">
-        <v>0.9986634806475676</v>
+        <v>1.011704350266305</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9581665281393947</v>
+        <v>1.017178167073867</v>
       </c>
       <c r="D18">
-        <v>0.9709299080944294</v>
+        <v>1.019414859951583</v>
       </c>
       <c r="E18">
-        <v>0.9757824641507016</v>
+        <v>1.026914142668853</v>
       </c>
       <c r="F18">
-        <v>0.9749153068732684</v>
+        <v>1.033925434066817</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9869087441311396</v>
+        <v>1.023408195856578</v>
       </c>
       <c r="K18">
-        <v>0.9852700331108301</v>
+        <v>1.022796852535647</v>
       </c>
       <c r="L18">
-        <v>0.9900327410300414</v>
+        <v>1.030269627252778</v>
       </c>
       <c r="M18">
-        <v>0.9891815541800241</v>
+        <v>1.037256518498098</v>
       </c>
       <c r="N18">
-        <v>0.9989607131980801</v>
+        <v>1.011763474262471</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9586145094487761</v>
+        <v>1.01726478815901</v>
       </c>
       <c r="D19">
-        <v>0.9712953953745147</v>
+        <v>1.019490178028921</v>
       </c>
       <c r="E19">
-        <v>0.9761684320711996</v>
+        <v>1.026993907584169</v>
       </c>
       <c r="F19">
-        <v>0.9753613470432096</v>
+        <v>1.03401848067386</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044815</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9871932405235424</v>
+        <v>1.023466678575722</v>
       </c>
       <c r="K19">
-        <v>0.9855613938723428</v>
+        <v>1.02285733192662</v>
       </c>
       <c r="L19">
-        <v>0.990344781788712</v>
+        <v>1.03033466361896</v>
       </c>
       <c r="M19">
-        <v>0.9895524640236821</v>
+        <v>1.037334906630303</v>
       </c>
       <c r="N19">
-        <v>0.9990616102641933</v>
+        <v>1.011783629786303</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.956603315527679</v>
+        <v>1.016877440273004</v>
       </c>
       <c r="D20">
-        <v>0.969655235428772</v>
+        <v>1.019153399807599</v>
       </c>
       <c r="E20">
-        <v>0.9744363282993093</v>
+        <v>1.026637247034679</v>
       </c>
       <c r="F20">
-        <v>0.9733596189923404</v>
+        <v>1.033602447089504</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030192</v>
       </c>
       <c r="J20">
-        <v>0.9859160530782668</v>
+        <v>1.023205133269756</v>
       </c>
       <c r="K20">
-        <v>0.9842535058902637</v>
+        <v>1.022586867424131</v>
       </c>
       <c r="L20">
-        <v>0.988944088283273</v>
+        <v>1.030043825145954</v>
       </c>
       <c r="M20">
-        <v>0.9878876607139941</v>
+        <v>1.036984384826867</v>
       </c>
       <c r="N20">
-        <v>0.9986085909541059</v>
+        <v>1.011693472844303</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9499240189078842</v>
+        <v>1.015618867949066</v>
       </c>
       <c r="D21">
-        <v>0.9642207054777997</v>
+        <v>1.018059588316606</v>
       </c>
       <c r="E21">
-        <v>0.9686964718595016</v>
+        <v>1.025478882902058</v>
       </c>
       <c r="F21">
-        <v>0.9667254124590309</v>
+        <v>1.032251507085556</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9816755715221404</v>
+        <v>1.022354878825014</v>
       </c>
       <c r="K21">
-        <v>0.9799131833643308</v>
+        <v>1.021707798543563</v>
       </c>
       <c r="L21">
-        <v>0.9842962005037235</v>
+        <v>1.029098621600024</v>
       </c>
       <c r="M21">
-        <v>0.9823658467051898</v>
+        <v>1.03584565170029</v>
       </c>
       <c r="N21">
-        <v>0.9971034487926604</v>
+        <v>1.011400071138333</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.945609896450366</v>
+        <v>1.014828110722074</v>
       </c>
       <c r="D22">
-        <v>0.9607208011953504</v>
+        <v>1.017372698487875</v>
       </c>
       <c r="E22">
-        <v>0.9649993373275209</v>
+        <v>1.024751471951725</v>
       </c>
       <c r="F22">
-        <v>0.9624513146193949</v>
+        <v>1.031403360250182</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.97893791190306</v>
+        <v>1.02182033074294</v>
       </c>
       <c r="K22">
-        <v>0.9771127210958066</v>
+        <v>1.021155274152923</v>
       </c>
       <c r="L22">
-        <v>0.9812975813142109</v>
+        <v>1.028504594244827</v>
       </c>
       <c r="M22">
-        <v>0.9788052126728926</v>
+        <v>1.035130332009972</v>
       </c>
       <c r="N22">
-        <v>0.9961310240910697</v>
+        <v>1.011215373908602</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9479082104790477</v>
+        <v>1.015247253587172</v>
       </c>
       <c r="D23">
-        <v>0.9625843481704517</v>
+        <v>1.017736752859941</v>
       </c>
       <c r="E23">
-        <v>0.9669679618069444</v>
+        <v>1.025137001161882</v>
       </c>
       <c r="F23">
-        <v>0.9647272562872277</v>
+        <v>1.031852861336365</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288725</v>
       </c>
       <c r="J23">
-        <v>0.9803962363848761</v>
+        <v>1.022103701023303</v>
       </c>
       <c r="K23">
-        <v>0.9786043414662173</v>
+        <v>1.02144816067351</v>
       </c>
       <c r="L23">
-        <v>0.9828947214614399</v>
+        <v>1.028819474860521</v>
       </c>
       <c r="M23">
-        <v>0.9807015325512445</v>
+        <v>1.035509475331172</v>
       </c>
       <c r="N23">
-        <v>0.9966490848173821</v>
+        <v>1.011313306599714</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9567134501274058</v>
+        <v>1.016898549919705</v>
       </c>
       <c r="D24">
-        <v>0.9697450066155388</v>
+        <v>1.019171751827567</v>
       </c>
       <c r="E24">
-        <v>0.9745311342148537</v>
+        <v>1.026656682413228</v>
       </c>
       <c r="F24">
-        <v>0.9734691853505727</v>
+        <v>1.033625116891363</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.9859859895566756</v>
+        <v>1.02321938860577</v>
       </c>
       <c r="K24">
-        <v>0.9843251158039981</v>
+        <v>1.02260160821347</v>
       </c>
       <c r="L24">
-        <v>0.9890207778897968</v>
+        <v>1.030059676029977</v>
       </c>
       <c r="M24">
-        <v>0.9879788012504283</v>
+        <v>1.037003486841567</v>
       </c>
       <c r="N24">
-        <v>0.9986334015827808</v>
+        <v>1.011698387960088</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.966474917731732</v>
+        <v>1.018817244504749</v>
       </c>
       <c r="D25">
-        <v>0.9777225190702972</v>
+        <v>1.020840617249542</v>
       </c>
       <c r="E25">
-        <v>0.9829550308834719</v>
+        <v>1.028424108096125</v>
       </c>
       <c r="F25">
-        <v>0.983203628366259</v>
+        <v>1.035687152496668</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.9921857165288225</v>
+        <v>1.02451426692705</v>
       </c>
       <c r="K25">
-        <v>0.9906767974917591</v>
+        <v>1.02394091389106</v>
       </c>
       <c r="L25">
-        <v>0.995823839466049</v>
+        <v>1.031499999575048</v>
       </c>
       <c r="M25">
-        <v>0.9960684053320337</v>
+        <v>1.038740036470138</v>
       </c>
       <c r="N25">
-        <v>1.000830715978771</v>
+        <v>1.012144275226148</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_247/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_247/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020349605984689</v>
+        <v>0.9739339180554053</v>
       </c>
       <c r="D2">
-        <v>1.022174629359064</v>
+        <v>0.9838464233272356</v>
       </c>
       <c r="E2">
-        <v>1.029836972115252</v>
+        <v>0.989420408200977</v>
       </c>
       <c r="F2">
-        <v>1.037336229550243</v>
+        <v>0.9906743464357204</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.023594999628091</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.02554721649973</v>
+        <v>0.9969232293530602</v>
       </c>
       <c r="K2">
-        <v>1.025009786906153</v>
+        <v>0.9955354867939598</v>
       </c>
       <c r="L2">
-        <v>1.032649726007894</v>
+        <v>1.001029128147641</v>
       </c>
       <c r="M2">
-        <v>1.040127404791578</v>
+        <v>1.002265149733667</v>
       </c>
       <c r="N2">
-        <v>1.012499121358909</v>
+        <v>1.002506338836173</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021463424500027</v>
+        <v>0.979178562665931</v>
       </c>
       <c r="D3">
-        <v>1.023144942643183</v>
+        <v>0.9881670962117085</v>
       </c>
       <c r="E3">
-        <v>1.030864681332056</v>
+        <v>0.9939815175982827</v>
       </c>
       <c r="F3">
-        <v>1.038536172828092</v>
+        <v>0.9959450139106524</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208683</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.026297326841434</v>
+        <v>1.000253396279419</v>
       </c>
       <c r="K3">
-        <v>1.025786262692901</v>
+        <v>0.9989536541660711</v>
       </c>
       <c r="L3">
-        <v>1.03348507388885</v>
+        <v>1.004691989681976</v>
       </c>
       <c r="M3">
-        <v>1.041136101883477</v>
+        <v>1.006630043327909</v>
       </c>
       <c r="N3">
-        <v>1.012756310177493</v>
+        <v>1.003681905316705</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022184695731987</v>
+        <v>0.9824984031185815</v>
       </c>
       <c r="D4">
-        <v>1.023773588947807</v>
+        <v>0.9909084629276327</v>
       </c>
       <c r="E4">
-        <v>1.031530533551314</v>
+        <v>0.9968752724198117</v>
       </c>
       <c r="F4">
-        <v>1.039313808765389</v>
+        <v>0.9992892793052262</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.026782745325733</v>
+        <v>1.002360650093781</v>
       </c>
       <c r="K4">
-        <v>1.026288871349019</v>
+        <v>1.001117867582827</v>
       </c>
       <c r="L4">
-        <v>1.034025853867295</v>
+        <v>1.007011557026558</v>
       </c>
       <c r="M4">
-        <v>1.04178942196542</v>
+        <v>1.009396289674873</v>
       </c>
       <c r="N4">
-        <v>1.012922514777585</v>
+        <v>1.004424625327858</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022488051932126</v>
+        <v>0.9838771510913588</v>
       </c>
       <c r="D5">
-        <v>1.024038060559989</v>
+        <v>0.9920484411420194</v>
       </c>
       <c r="E5">
-        <v>1.031810662680135</v>
+        <v>0.9980785898028921</v>
       </c>
       <c r="F5">
-        <v>1.03964101271398</v>
+        <v>1.00068004122112</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628374</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.026986826549575</v>
+        <v>1.003235586170117</v>
       </c>
       <c r="K5">
-        <v>1.026500210362561</v>
+        <v>1.002016755206787</v>
       </c>
       <c r="L5">
-        <v>1.034253258650684</v>
+        <v>1.007975076079335</v>
       </c>
       <c r="M5">
-        <v>1.042064227717361</v>
+        <v>1.010545871323207</v>
       </c>
       <c r="N5">
-        <v>1.012992335863613</v>
+        <v>1.004732714373155</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022538994635924</v>
+        <v>0.9841076782633263</v>
       </c>
       <c r="D6">
-        <v>1.024082477569908</v>
+        <v>0.9922391308202966</v>
       </c>
       <c r="E6">
-        <v>1.031857709606911</v>
+        <v>0.9982798729963079</v>
       </c>
       <c r="F6">
-        <v>1.039695968466207</v>
+        <v>1.000912686003805</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.02702109334905</v>
+        <v>1.003381861773516</v>
       </c>
       <c r="K6">
-        <v>1.026535697595033</v>
+        <v>1.002167052762828</v>
       </c>
       <c r="L6">
-        <v>1.034291444486443</v>
+        <v>1.008136186650679</v>
       </c>
       <c r="M6">
-        <v>1.042110377614219</v>
+        <v>1.010738124324083</v>
       </c>
       <c r="N6">
-        <v>1.013004056116885</v>
+        <v>1.004784204609149</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022188748665937</v>
+        <v>0.9825168915073218</v>
       </c>
       <c r="D7">
-        <v>1.023777122089087</v>
+        <v>0.9909237437779034</v>
       </c>
       <c r="E7">
-        <v>1.031534275845471</v>
+        <v>0.9968914024091703</v>
       </c>
       <c r="F7">
-        <v>1.039318179757125</v>
+        <v>0.9993079214547372</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023442985510381</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.026785472224582</v>
+        <v>1.002372383508944</v>
       </c>
       <c r="K7">
-        <v>1.02629169510493</v>
+        <v>1.0011299210151</v>
       </c>
       <c r="L7">
-        <v>1.034028892221836</v>
+        <v>1.007024476693042</v>
       </c>
       <c r="M7">
-        <v>1.041793093343689</v>
+        <v>1.009411702161698</v>
       </c>
       <c r="N7">
-        <v>1.012923447932227</v>
+        <v>1.004428758148761</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020725911381005</v>
+        <v>0.9757221181328658</v>
       </c>
       <c r="D8">
-        <v>1.022502387893734</v>
+        <v>0.985318207346867</v>
       </c>
       <c r="E8">
-        <v>1.030184114099452</v>
+        <v>0.9909741336679672</v>
       </c>
       <c r="F8">
-        <v>1.037741509306102</v>
+        <v>0.9924697260794498</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.025800710116416</v>
+        <v>0.9980588004228638</v>
       </c>
       <c r="K8">
-        <v>1.025272163894561</v>
+        <v>0.996700795337651</v>
       </c>
       <c r="L8">
-        <v>1.032931983170499</v>
+        <v>1.002277770218402</v>
       </c>
       <c r="M8">
-        <v>1.040468169287145</v>
+        <v>1.003752675219149</v>
       </c>
       <c r="N8">
-        <v>1.012586083693492</v>
+        <v>1.002907434859357</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018152436874261</v>
+        <v>0.9631473904311234</v>
       </c>
       <c r="D9">
-        <v>1.020262189021228</v>
+        <v>0.9749984595694846</v>
       </c>
       <c r="E9">
-        <v>1.02781150883515</v>
+        <v>0.9800787628810553</v>
       </c>
       <c r="F9">
-        <v>1.034972331664743</v>
+        <v>0.9798800547816758</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.024065790219161</v>
+        <v>0.9900721644084376</v>
       </c>
       <c r="K9">
-        <v>1.02347697498826</v>
+        <v>0.9885106261303576</v>
       </c>
       <c r="L9">
-        <v>1.031001031962369</v>
+        <v>0.9935035345394324</v>
       </c>
       <c r="M9">
-        <v>1.038138265477068</v>
+        <v>0.9933082227531242</v>
       </c>
       <c r="N9">
-        <v>1.011989974284119</v>
+        <v>1.000082133369635</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016439591257137</v>
+        <v>0.9543050242191857</v>
       </c>
       <c r="D10">
-        <v>1.018772792231163</v>
+        <v>0.9677830845505776</v>
       </c>
       <c r="E10">
-        <v>1.026234173601192</v>
+        <v>0.9724591158635084</v>
       </c>
       <c r="F10">
-        <v>1.033132319420464</v>
+        <v>0.9710744935318582</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.022909411080321</v>
+        <v>0.9844567181791076</v>
       </c>
       <c r="K10">
-        <v>1.022281092265943</v>
+        <v>0.982759452658589</v>
       </c>
       <c r="L10">
-        <v>1.029715031074178</v>
+        <v>0.9873440943613374</v>
       </c>
       <c r="M10">
-        <v>1.036588195265999</v>
+        <v>0.9859864131628148</v>
       </c>
       <c r="N10">
-        <v>1.011591480050356</v>
+        <v>0.9980907755360844</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015698565473323</v>
+        <v>0.9503536947344591</v>
       </c>
       <c r="D11">
-        <v>1.018128832288674</v>
+        <v>0.9645697266795783</v>
       </c>
       <c r="E11">
-        <v>1.025552212411625</v>
+        <v>0.9690651349542432</v>
       </c>
       <c r="F11">
-        <v>1.032337016077355</v>
+        <v>0.9671515655035892</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.022408739773228</v>
+        <v>0.9819482954774923</v>
       </c>
       <c r="K11">
-        <v>1.021763476684015</v>
+        <v>0.9801922337873695</v>
       </c>
       <c r="L11">
-        <v>1.029158484755441</v>
+        <v>0.9845950076463936</v>
       </c>
       <c r="M11">
-        <v>1.035917752253726</v>
+        <v>0.9827207311547307</v>
       </c>
       <c r="N11">
-        <v>1.011418671126737</v>
+        <v>0.9972002938187402</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015423411878731</v>
+        <v>0.9488663138146323</v>
       </c>
       <c r="D12">
-        <v>1.017889780852791</v>
+        <v>0.9633618818567079</v>
       </c>
       <c r="E12">
-        <v>1.025299056986841</v>
+        <v>0.9677892960362589</v>
       </c>
       <c r="F12">
-        <v>1.032041819855414</v>
+        <v>0.9656767388361304</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.022222775200687</v>
+        <v>0.9810042683848796</v>
       </c>
       <c r="K12">
-        <v>1.021571242525713</v>
+        <v>0.9792263622862231</v>
       </c>
       <c r="L12">
-        <v>1.028951803568309</v>
+        <v>0.9835607618678942</v>
       </c>
       <c r="M12">
-        <v>1.035668831736869</v>
+        <v>0.9814924462070693</v>
       </c>
       <c r="N12">
-        <v>1.0113544434857</v>
+        <v>0.9968650449899177</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015482428912444</v>
+        <v>0.9491862743497482</v>
       </c>
       <c r="D13">
-        <v>1.017941051683968</v>
+        <v>0.9636216289596025</v>
       </c>
       <c r="E13">
-        <v>1.025353352659628</v>
+        <v>0.9680636700690866</v>
       </c>
       <c r="F13">
-        <v>1.03210513073432</v>
+        <v>0.9659939134488754</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>1.022262664917883</v>
+        <v>0.981207333898706</v>
       </c>
       <c r="K13">
-        <v>1.02161247599071</v>
+        <v>0.979434113736169</v>
       </c>
       <c r="L13">
-        <v>1.028996135357016</v>
+        <v>0.9837832179178125</v>
       </c>
       <c r="M13">
-        <v>1.035722220977581</v>
+        <v>0.9817566244037282</v>
       </c>
       <c r="N13">
-        <v>1.011368222283054</v>
+        <v>0.9969371641028597</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015675819230671</v>
+        <v>0.9502311566100217</v>
       </c>
       <c r="D14">
-        <v>1.018109069286104</v>
+        <v>0.9644701821208429</v>
       </c>
       <c r="E14">
-        <v>1.02553128333795</v>
+        <v>0.9689599887968072</v>
       </c>
       <c r="F14">
-        <v>1.032312610686158</v>
+        <v>0.9670300234083734</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012189</v>
       </c>
       <c r="J14">
-        <v>1.022393367741351</v>
+        <v>0.9818705170259425</v>
       </c>
       <c r="K14">
-        <v>1.021747585910623</v>
+        <v>0.9801126497754432</v>
       </c>
       <c r="L14">
-        <v>1.029141399509654</v>
+        <v>0.9845097888754983</v>
       </c>
       <c r="M14">
-        <v>1.035897174126639</v>
+        <v>0.9826195179166444</v>
       </c>
       <c r="N14">
-        <v>1.011413362839077</v>
+        <v>0.9971726750198459</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015794986131469</v>
+        <v>0.9508722951468662</v>
       </c>
       <c r="D15">
-        <v>1.018212609549888</v>
+        <v>0.9649910864446123</v>
       </c>
       <c r="E15">
-        <v>1.025640932876699</v>
+        <v>0.9695102013884476</v>
       </c>
       <c r="F15">
-        <v>1.032440474383947</v>
+        <v>0.9676660268722849</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833787</v>
       </c>
       <c r="J15">
-        <v>1.022473898990777</v>
+        <v>0.9822774748465315</v>
       </c>
       <c r="K15">
-        <v>1.02183083573628</v>
+        <v>0.9805290663550019</v>
       </c>
       <c r="L15">
-        <v>1.029230907489905</v>
+        <v>0.9849556908672812</v>
       </c>
       <c r="M15">
-        <v>1.036004983346332</v>
+        <v>0.9831491225519241</v>
       </c>
       <c r="N15">
-        <v>1.011441170298477</v>
+        <v>0.9973171791502105</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016488784264058</v>
+        <v>0.9545645732834608</v>
       </c>
       <c r="D16">
-        <v>1.01881554992392</v>
+        <v>0.9679943947040143</v>
       </c>
       <c r="E16">
-        <v>1.026279454913947</v>
+        <v>0.9726822905245578</v>
       </c>
       <c r="F16">
-        <v>1.033185131246975</v>
+        <v>0.9713324312498521</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.022942639986949</v>
+        <v>0.9846215125177383</v>
       </c>
       <c r="K16">
-        <v>1.022315449107855</v>
+        <v>0.982928148473433</v>
       </c>
       <c r="L16">
-        <v>1.029751973530507</v>
+        <v>0.9875247482891391</v>
       </c>
       <c r="M16">
-        <v>1.036632706073421</v>
+        <v>0.9862010588685191</v>
       </c>
       <c r="N16">
-        <v>1.011602943375499</v>
+        <v>0.9981492589842385</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016924158244312</v>
+        <v>0.9568469732641726</v>
       </c>
       <c r="D17">
-        <v>1.019194015107871</v>
+        <v>0.9698538489346431</v>
       </c>
       <c r="E17">
-        <v>1.026680259955463</v>
+        <v>0.9746460804790854</v>
       </c>
       <c r="F17">
-        <v>1.033652618342809</v>
+        <v>0.9736020272964472</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862435</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.023236681640314</v>
+        <v>0.986070778519798</v>
       </c>
       <c r="K17">
-        <v>1.022619490252654</v>
+        <v>0.9844119347781296</v>
       </c>
       <c r="L17">
-        <v>1.030078904773804</v>
+        <v>0.9891137556682005</v>
       </c>
       <c r="M17">
-        <v>1.037026659793874</v>
+        <v>0.9880893006425405</v>
       </c>
       <c r="N17">
-        <v>1.011704350266305</v>
+        <v>0.9986634806475672</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017178167073867</v>
+        <v>0.9581665281393947</v>
       </c>
       <c r="D18">
-        <v>1.019414859951583</v>
+        <v>0.9709299080944295</v>
       </c>
       <c r="E18">
-        <v>1.026914142668853</v>
+        <v>0.9757824641507014</v>
       </c>
       <c r="F18">
-        <v>1.033925434066817</v>
+        <v>0.9749153068732684</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.023408195856578</v>
+        <v>0.9869087441311397</v>
       </c>
       <c r="K18">
-        <v>1.022796852535647</v>
+        <v>0.9852700331108302</v>
       </c>
       <c r="L18">
-        <v>1.030269627252778</v>
+        <v>0.9900327410300412</v>
       </c>
       <c r="M18">
-        <v>1.037256518498098</v>
+        <v>0.9891815541800238</v>
       </c>
       <c r="N18">
-        <v>1.011763474262471</v>
+        <v>0.99896071319808</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01726478815901</v>
+        <v>0.9586145094487757</v>
       </c>
       <c r="D19">
-        <v>1.019490178028921</v>
+        <v>0.9712953953745141</v>
       </c>
       <c r="E19">
-        <v>1.026993907584169</v>
+        <v>0.9761684320711992</v>
       </c>
       <c r="F19">
-        <v>1.03401848067386</v>
+        <v>0.9753613470432094</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044815</v>
       </c>
       <c r="J19">
-        <v>1.023466678575722</v>
+        <v>0.9871932405235421</v>
       </c>
       <c r="K19">
-        <v>1.02285733192662</v>
+        <v>0.9855613938723423</v>
       </c>
       <c r="L19">
-        <v>1.03033466361896</v>
+        <v>0.9903447817887115</v>
       </c>
       <c r="M19">
-        <v>1.037334906630303</v>
+        <v>0.9895524640236818</v>
       </c>
       <c r="N19">
-        <v>1.011783629786303</v>
+        <v>0.9990616102641932</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016877440273004</v>
+        <v>0.9566033155276789</v>
       </c>
       <c r="D20">
-        <v>1.019153399807599</v>
+        <v>0.9696552354287716</v>
       </c>
       <c r="E20">
-        <v>1.026637247034679</v>
+        <v>0.974436328299309</v>
       </c>
       <c r="F20">
-        <v>1.033602447089504</v>
+        <v>0.9733596189923401</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030192</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.023205133269756</v>
+        <v>0.9859160530782667</v>
       </c>
       <c r="K20">
-        <v>1.022586867424131</v>
+        <v>0.9842535058902634</v>
       </c>
       <c r="L20">
-        <v>1.030043825145954</v>
+        <v>0.9889440882832727</v>
       </c>
       <c r="M20">
-        <v>1.036984384826867</v>
+        <v>0.9878876607139939</v>
       </c>
       <c r="N20">
-        <v>1.011693472844303</v>
+        <v>0.998608590954106</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015618867949066</v>
+        <v>0.9499240189078842</v>
       </c>
       <c r="D21">
-        <v>1.018059588316606</v>
+        <v>0.9642207054777998</v>
       </c>
       <c r="E21">
-        <v>1.025478882902058</v>
+        <v>0.9686964718595016</v>
       </c>
       <c r="F21">
-        <v>1.032251507085556</v>
+        <v>0.9667254124590311</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.022354878825014</v>
+        <v>0.9816755715221405</v>
       </c>
       <c r="K21">
-        <v>1.021707798543563</v>
+        <v>0.9799131833643309</v>
       </c>
       <c r="L21">
-        <v>1.029098621600024</v>
+        <v>0.9842962005037235</v>
       </c>
       <c r="M21">
-        <v>1.03584565170029</v>
+        <v>0.9823658467051899</v>
       </c>
       <c r="N21">
-        <v>1.011400071138333</v>
+        <v>0.9971034487926607</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014828110722074</v>
+        <v>0.9456098964503661</v>
       </c>
       <c r="D22">
-        <v>1.017372698487875</v>
+        <v>0.9607208011953506</v>
       </c>
       <c r="E22">
-        <v>1.024751471951725</v>
+        <v>0.9649993373275207</v>
       </c>
       <c r="F22">
-        <v>1.031403360250182</v>
+        <v>0.9624513146193949</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.02182033074294</v>
+        <v>0.97893791190306</v>
       </c>
       <c r="K22">
-        <v>1.021155274152923</v>
+        <v>0.9771127210958067</v>
       </c>
       <c r="L22">
-        <v>1.028504594244827</v>
+        <v>0.9812975813142107</v>
       </c>
       <c r="M22">
-        <v>1.035130332009972</v>
+        <v>0.9788052126728926</v>
       </c>
       <c r="N22">
-        <v>1.011215373908602</v>
+        <v>0.9961310240910698</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015247253587172</v>
+        <v>0.9479082104790479</v>
       </c>
       <c r="D23">
-        <v>1.017736752859941</v>
+        <v>0.9625843481704518</v>
       </c>
       <c r="E23">
-        <v>1.025137001161882</v>
+        <v>0.9669679618069442</v>
       </c>
       <c r="F23">
-        <v>1.031852861336365</v>
+        <v>0.9647272562872276</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288725</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.022103701023303</v>
+        <v>0.9803962363848761</v>
       </c>
       <c r="K23">
-        <v>1.02144816067351</v>
+        <v>0.9786043414662173</v>
       </c>
       <c r="L23">
-        <v>1.028819474860521</v>
+        <v>0.9828947214614396</v>
       </c>
       <c r="M23">
-        <v>1.035509475331172</v>
+        <v>0.9807015325512445</v>
       </c>
       <c r="N23">
-        <v>1.011313306599714</v>
+        <v>0.996649084817382</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016898549919705</v>
+        <v>0.9567134501274065</v>
       </c>
       <c r="D24">
-        <v>1.019171751827567</v>
+        <v>0.9697450066155395</v>
       </c>
       <c r="E24">
-        <v>1.026656682413228</v>
+        <v>0.9745311342148542</v>
       </c>
       <c r="F24">
-        <v>1.033625116891363</v>
+        <v>0.9734691853505735</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.02321938860577</v>
+        <v>0.9859859895566763</v>
       </c>
       <c r="K24">
-        <v>1.02260160821347</v>
+        <v>0.9843251158039986</v>
       </c>
       <c r="L24">
-        <v>1.030059676029977</v>
+        <v>0.9890207778897974</v>
       </c>
       <c r="M24">
-        <v>1.037003486841567</v>
+        <v>0.987978801250429</v>
       </c>
       <c r="N24">
-        <v>1.011698387960088</v>
+        <v>0.9986334015827811</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018817244504749</v>
+        <v>0.9664749177317323</v>
       </c>
       <c r="D25">
-        <v>1.020840617249542</v>
+        <v>0.9777225190702977</v>
       </c>
       <c r="E25">
-        <v>1.028424108096125</v>
+        <v>0.9829550308834722</v>
       </c>
       <c r="F25">
-        <v>1.035687152496668</v>
+        <v>0.9832036283662592</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.02451426692705</v>
+        <v>0.992185716528823</v>
       </c>
       <c r="K25">
-        <v>1.02394091389106</v>
+        <v>0.9906767974917597</v>
       </c>
       <c r="L25">
-        <v>1.031499999575048</v>
+        <v>0.9958238394660492</v>
       </c>
       <c r="M25">
-        <v>1.038740036470138</v>
+        <v>0.9960684053320339</v>
       </c>
       <c r="N25">
-        <v>1.012144275226148</v>
+        <v>1.000830715978772</v>
       </c>
     </row>
   </sheetData>
